--- a/biology/Histoire de la zoologie et de la botanique/Buvée/Buvée.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Buvée/Buvée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buv%C3%A9e</t>
+          <t>Buvée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buvée, dit aussi Buvée l'Américain ou encore Buvée l'Amériquain, est un illustrateur français du XVIIIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buv%C3%A9e</t>
+          <t>Buvée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actif au milieu du XVIIIe siècle[1], la vie de  Buvée est peu renseignée[2],[3]. Son surnom laisse penser qu'il aurait voyagé aux Amériques et notamment à Cayenne[4].
-Il est connu pour avoir réalisé les illustrations de l’Histoire naturelle générale et particulière de Buffon (1758) et Figures pour l'histoire des quadrupèdes, de Buffon (6 vol : 1749-1767[5]), avec Jacques de Sève, que d'autres, en particulier Louis-Simon Lempereur, se chargeaient de graver[6]. Il a surtout produit des croquis à partir des dissections anatomiques de Daubenton[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actif au milieu du XVIIIe siècle, la vie de  Buvée est peu renseignée,. Son surnom laisse penser qu'il aurait voyagé aux Amériques et notamment à Cayenne.
+Il est connu pour avoir réalisé les illustrations de l’Histoire naturelle générale et particulière de Buffon (1758) et Figures pour l'histoire des quadrupèdes, de Buffon (6 vol : 1749-1767), avec Jacques de Sève, que d'autres, en particulier Louis-Simon Lempereur, se chargeaient de graver. Il a surtout produit des croquis à partir des dissections anatomiques de Daubenton.
 	Illustrations de l'Histoire naturelle de Buffon
 			Le Chat d'Angora (t. VI).
 			Le Chat, organes et squelette (t. VI).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buv%C3%A9e</t>
+          <t>Buvée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département des estampes de la Bibliothèque nationale de France conserve quatre grands volumes sous le titre Recueil des dessins originaux de De Sève et de Buvée pour les quadrupèdes. En regard de chaque dessins, se trouve une épreuve de la gravure correspondante[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département des estampes de la Bibliothèque nationale de France conserve quatre grands volumes sous le titre Recueil des dessins originaux de De Sève et de Buvée pour les quadrupèdes. En regard de chaque dessins, se trouve une épreuve de la gravure correspondante.
 </t>
         </is>
       </c>
